--- a/RESET COMP.xlsx
+++ b/RESET COMP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Use this as Ind. Data" sheetId="4" r:id="rId1"/>
@@ -3032,7 +3032,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:W285" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
   <autoFilter ref="A1:W285"/>
-  <sortState ref="A2:AM283">
+  <sortState ref="A2:W285">
     <sortCondition descending="1" ref="U1:U283"/>
   </sortState>
   <tableColumns count="23">
@@ -3526,8 +3526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W285"/>
   <sheetViews>
-    <sheetView topLeftCell="A255" zoomScale="111" workbookViewId="0">
-      <selection activeCell="C284" sqref="C284"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3684,7 +3684,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
-        <f t="shared" ref="A3:A66" si="0">A2+1</f>
+        <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -3756,7 +3756,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
-        <f t="shared" si="0"/>
+        <f>A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -3828,7 +3828,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
-        <f t="shared" si="0"/>
+        <f>A4+1</f>
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -3900,7 +3900,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
-        <f t="shared" si="0"/>
+        <f>A5+1</f>
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -3972,7 +3972,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
-        <f t="shared" si="0"/>
+        <f>A6+1</f>
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -4044,7 +4044,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
-        <f t="shared" si="0"/>
+        <f>A7+1</f>
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -4116,7 +4116,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
-        <f t="shared" si="0"/>
+        <f>A8+1</f>
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -4188,7 +4188,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
-        <f t="shared" si="0"/>
+        <f>A9+1</f>
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -4260,7 +4260,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
-        <f t="shared" si="0"/>
+        <f>A10+1</f>
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -4332,7 +4332,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
-        <f t="shared" si="0"/>
+        <f>A11+1</f>
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -4404,7 +4404,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
-        <f t="shared" si="0"/>
+        <f>A12+1</f>
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -4476,7 +4476,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
-        <f t="shared" si="0"/>
+        <f>A13+1</f>
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -4548,7 +4548,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
-        <f t="shared" si="0"/>
+        <f>A14+1</f>
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -4620,7 +4620,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
-        <f t="shared" si="0"/>
+        <f>A15+1</f>
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -4692,7 +4692,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
-        <f t="shared" si="0"/>
+        <f>A16+1</f>
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -4764,7 +4764,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
-        <f t="shared" si="0"/>
+        <f>A17+1</f>
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -4836,7 +4836,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
-        <f t="shared" si="0"/>
+        <f>A18+1</f>
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -4908,7 +4908,7 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
-        <f t="shared" si="0"/>
+        <f>A19+1</f>
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
@@ -4980,7 +4980,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
-        <f t="shared" si="0"/>
+        <f>A20+1</f>
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -5052,7 +5052,7 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
-        <f t="shared" si="0"/>
+        <f>A21+1</f>
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
@@ -5124,7 +5124,7 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
-        <f t="shared" si="0"/>
+        <f>A22+1</f>
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
@@ -5196,7 +5196,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
-        <f t="shared" si="0"/>
+        <f>A23+1</f>
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -5268,7 +5268,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
-        <f t="shared" si="0"/>
+        <f>A24+1</f>
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -5340,7 +5340,7 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
-        <f t="shared" si="0"/>
+        <f>A25+1</f>
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -5412,7 +5412,7 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
-        <f t="shared" si="0"/>
+        <f>A26+1</f>
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
@@ -5484,7 +5484,7 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
-        <f t="shared" si="0"/>
+        <f>A27+1</f>
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -5556,7 +5556,7 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
-        <f t="shared" si="0"/>
+        <f>A28+1</f>
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
@@ -5628,7 +5628,7 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
-        <f t="shared" si="0"/>
+        <f>A29+1</f>
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -5700,7 +5700,7 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
-        <f t="shared" si="0"/>
+        <f>A30+1</f>
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
@@ -5772,7 +5772,7 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
-        <f t="shared" si="0"/>
+        <f>A31+1</f>
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
@@ -5844,7 +5844,7 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
-        <f t="shared" si="0"/>
+        <f>A32+1</f>
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
@@ -5916,7 +5916,7 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
-        <f t="shared" si="0"/>
+        <f>A33+1</f>
         <v>33</v>
       </c>
       <c r="B34" s="11" t="s">
@@ -5988,7 +5988,7 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
-        <f t="shared" si="0"/>
+        <f>A34+1</f>
         <v>34</v>
       </c>
       <c r="B35" s="11" t="s">
@@ -6060,7 +6060,7 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
-        <f t="shared" si="0"/>
+        <f>A35+1</f>
         <v>35</v>
       </c>
       <c r="B36" s="11" t="s">
@@ -6132,7 +6132,7 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
-        <f t="shared" si="0"/>
+        <f>A36+1</f>
         <v>36</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -6204,7 +6204,7 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
-        <f t="shared" si="0"/>
+        <f>A37+1</f>
         <v>37</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -6276,7 +6276,7 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
-        <f t="shared" si="0"/>
+        <f>A38+1</f>
         <v>38</v>
       </c>
       <c r="B39" s="11" t="s">
@@ -6348,7 +6348,7 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
-        <f t="shared" si="0"/>
+        <f>A39+1</f>
         <v>39</v>
       </c>
       <c r="B40" s="11" t="s">
@@ -6420,7 +6420,7 @@
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
-        <f t="shared" si="0"/>
+        <f>A40+1</f>
         <v>40</v>
       </c>
       <c r="B41" s="11" t="s">
@@ -6492,7 +6492,7 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
-        <f t="shared" si="0"/>
+        <f>A41+1</f>
         <v>41</v>
       </c>
       <c r="B42" s="11" t="s">
@@ -6564,7 +6564,7 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
-        <f t="shared" si="0"/>
+        <f>A42+1</f>
         <v>42</v>
       </c>
       <c r="B43" s="11" t="s">
@@ -6636,7 +6636,7 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
-        <f t="shared" si="0"/>
+        <f>A43+1</f>
         <v>43</v>
       </c>
       <c r="B44" s="11" t="s">
@@ -6708,7 +6708,7 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
-        <f t="shared" si="0"/>
+        <f>A44+1</f>
         <v>44</v>
       </c>
       <c r="B45" s="11" t="s">
@@ -6780,7 +6780,7 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="10">
-        <f t="shared" si="0"/>
+        <f>A45+1</f>
         <v>45</v>
       </c>
       <c r="B46" s="11" t="s">
@@ -6852,7 +6852,7 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="10">
-        <f t="shared" si="0"/>
+        <f>A46+1</f>
         <v>46</v>
       </c>
       <c r="B47" s="11" t="s">
@@ -6924,7 +6924,7 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="10">
-        <f t="shared" si="0"/>
+        <f>A47+1</f>
         <v>47</v>
       </c>
       <c r="B48" s="11" t="s">
@@ -6996,7 +6996,7 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="10">
-        <f t="shared" si="0"/>
+        <f>A48+1</f>
         <v>48</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -7068,7 +7068,7 @@
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="10">
-        <f t="shared" si="0"/>
+        <f>A49+1</f>
         <v>49</v>
       </c>
       <c r="B50" s="11" t="s">
@@ -7140,7 +7140,7 @@
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="10">
-        <f t="shared" si="0"/>
+        <f>A50+1</f>
         <v>50</v>
       </c>
       <c r="B51" s="11" t="s">
@@ -7212,7 +7212,7 @@
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="10">
-        <f t="shared" si="0"/>
+        <f>A51+1</f>
         <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
@@ -7284,7 +7284,7 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="10">
-        <f t="shared" si="0"/>
+        <f>A52+1</f>
         <v>52</v>
       </c>
       <c r="B53" s="11" t="s">
@@ -7356,7 +7356,7 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="10">
-        <f t="shared" si="0"/>
+        <f>A53+1</f>
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
@@ -7428,7 +7428,7 @@
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
-        <f t="shared" si="0"/>
+        <f>A54+1</f>
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
@@ -7500,7 +7500,7 @@
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="10">
-        <f t="shared" si="0"/>
+        <f>A55+1</f>
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
@@ -7572,7 +7572,7 @@
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="10">
-        <f t="shared" si="0"/>
+        <f>A56+1</f>
         <v>56</v>
       </c>
       <c r="B57" s="11" t="s">
@@ -7644,7 +7644,7 @@
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="10">
-        <f t="shared" si="0"/>
+        <f>A57+1</f>
         <v>57</v>
       </c>
       <c r="B58" s="11" t="s">
@@ -7716,7 +7716,7 @@
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" s="10">
-        <f t="shared" si="0"/>
+        <f>A58+1</f>
         <v>58</v>
       </c>
       <c r="B59" s="11" t="s">
@@ -7788,7 +7788,7 @@
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="10">
-        <f t="shared" si="0"/>
+        <f>A59+1</f>
         <v>59</v>
       </c>
       <c r="B60" s="11" t="s">
@@ -7860,7 +7860,7 @@
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="10">
-        <f t="shared" si="0"/>
+        <f>A60+1</f>
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
@@ -7932,7 +7932,7 @@
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" s="10">
-        <f t="shared" si="0"/>
+        <f>A61+1</f>
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
@@ -8004,7 +8004,7 @@
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" s="10">
-        <f t="shared" si="0"/>
+        <f>A62+1</f>
         <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
@@ -8076,7 +8076,7 @@
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" s="10">
-        <f t="shared" si="0"/>
+        <f>A63+1</f>
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
@@ -8148,7 +8148,7 @@
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" s="10">
-        <f t="shared" si="0"/>
+        <f>A64+1</f>
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
@@ -8220,7 +8220,7 @@
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" s="10">
-        <f t="shared" si="0"/>
+        <f>A65+1</f>
         <v>65</v>
       </c>
       <c r="B66" s="11" t="s">
@@ -8292,7 +8292,7 @@
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" s="10">
-        <f t="shared" ref="A67:A130" si="1">A66+1</f>
+        <f>A66+1</f>
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
@@ -8364,7 +8364,7 @@
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" s="10">
-        <f t="shared" si="1"/>
+        <f>A67+1</f>
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
@@ -8436,7 +8436,7 @@
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" s="10">
-        <f t="shared" si="1"/>
+        <f>A68+1</f>
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
@@ -8508,7 +8508,7 @@
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" s="10">
-        <f t="shared" si="1"/>
+        <f>A69+1</f>
         <v>69</v>
       </c>
       <c r="B70" s="11" t="s">
@@ -8580,7 +8580,7 @@
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" s="10">
-        <f t="shared" si="1"/>
+        <f>A70+1</f>
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
@@ -8652,7 +8652,7 @@
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" s="10">
-        <f t="shared" si="1"/>
+        <f>A71+1</f>
         <v>71</v>
       </c>
       <c r="B72" s="11" t="s">
@@ -8724,7 +8724,7 @@
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" s="10">
-        <f t="shared" si="1"/>
+        <f>A72+1</f>
         <v>72</v>
       </c>
       <c r="B73" s="11" t="s">
@@ -8796,7 +8796,7 @@
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" s="10">
-        <f t="shared" si="1"/>
+        <f>A73+1</f>
         <v>73</v>
       </c>
       <c r="B74" s="11" t="s">
@@ -8868,7 +8868,7 @@
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" s="10">
-        <f t="shared" si="1"/>
+        <f>A74+1</f>
         <v>74</v>
       </c>
       <c r="B75" s="11" t="s">
@@ -8940,7 +8940,7 @@
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" s="10">
-        <f t="shared" si="1"/>
+        <f>A75+1</f>
         <v>75</v>
       </c>
       <c r="B76" s="11" t="s">
@@ -9012,7 +9012,7 @@
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" s="10">
-        <f t="shared" si="1"/>
+        <f>A76+1</f>
         <v>76</v>
       </c>
       <c r="B77" s="11" t="s">
@@ -9084,7 +9084,7 @@
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" s="10">
-        <f t="shared" si="1"/>
+        <f>A77+1</f>
         <v>77</v>
       </c>
       <c r="B78" s="11" t="s">
@@ -9156,7 +9156,7 @@
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" s="10">
-        <f t="shared" si="1"/>
+        <f>A78+1</f>
         <v>78</v>
       </c>
       <c r="B79" s="11" t="s">
@@ -9228,7 +9228,7 @@
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" s="10">
-        <f t="shared" si="1"/>
+        <f>A79+1</f>
         <v>79</v>
       </c>
       <c r="B80" s="11" t="s">
@@ -9300,7 +9300,7 @@
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" s="10">
-        <f t="shared" si="1"/>
+        <f>A80+1</f>
         <v>80</v>
       </c>
       <c r="B81" s="11" t="s">
@@ -9372,7 +9372,7 @@
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" s="10">
-        <f t="shared" si="1"/>
+        <f>A81+1</f>
         <v>81</v>
       </c>
       <c r="B82" s="11" t="s">
@@ -9444,7 +9444,7 @@
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" s="10">
-        <f t="shared" si="1"/>
+        <f>A82+1</f>
         <v>82</v>
       </c>
       <c r="B83" s="11" t="s">
@@ -9516,7 +9516,7 @@
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" s="10">
-        <f t="shared" si="1"/>
+        <f>A83+1</f>
         <v>83</v>
       </c>
       <c r="B84" s="11" t="s">
@@ -9588,7 +9588,7 @@
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" s="10">
-        <f t="shared" si="1"/>
+        <f>A84+1</f>
         <v>84</v>
       </c>
       <c r="B85" s="11" t="s">
@@ -9660,7 +9660,7 @@
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" s="10">
-        <f t="shared" si="1"/>
+        <f>A85+1</f>
         <v>85</v>
       </c>
       <c r="B86" s="11" t="s">
@@ -9732,7 +9732,7 @@
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" s="10">
-        <f t="shared" si="1"/>
+        <f>A86+1</f>
         <v>86</v>
       </c>
       <c r="B87" s="11" t="s">
@@ -9804,7 +9804,7 @@
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" s="10">
-        <f t="shared" si="1"/>
+        <f>A87+1</f>
         <v>87</v>
       </c>
       <c r="B88" s="11" t="s">
@@ -9876,7 +9876,7 @@
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" s="10">
-        <f t="shared" si="1"/>
+        <f>A88+1</f>
         <v>88</v>
       </c>
       <c r="B89" s="11" t="s">
@@ -9948,7 +9948,7 @@
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" s="10">
-        <f t="shared" si="1"/>
+        <f>A89+1</f>
         <v>89</v>
       </c>
       <c r="B90" s="11" t="s">
@@ -10020,7 +10020,7 @@
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" s="10">
-        <f t="shared" si="1"/>
+        <f>A90+1</f>
         <v>90</v>
       </c>
       <c r="B91" s="11" t="s">
@@ -10092,7 +10092,7 @@
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" s="10">
-        <f t="shared" si="1"/>
+        <f>A91+1</f>
         <v>91</v>
       </c>
       <c r="B92" s="11" t="s">
@@ -10164,7 +10164,7 @@
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" s="10">
-        <f t="shared" si="1"/>
+        <f>A92+1</f>
         <v>92</v>
       </c>
       <c r="B93" s="11" t="s">
@@ -10236,7 +10236,7 @@
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" s="10">
-        <f t="shared" si="1"/>
+        <f>A93+1</f>
         <v>93</v>
       </c>
       <c r="B94" s="11" t="s">
@@ -10308,7 +10308,7 @@
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" s="10">
-        <f t="shared" si="1"/>
+        <f>A94+1</f>
         <v>94</v>
       </c>
       <c r="B95" s="11" t="s">
@@ -10380,7 +10380,7 @@
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" s="10">
-        <f t="shared" si="1"/>
+        <f>A95+1</f>
         <v>95</v>
       </c>
       <c r="B96" s="11" t="s">
@@ -10452,7 +10452,7 @@
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" s="10">
-        <f t="shared" si="1"/>
+        <f>A96+1</f>
         <v>96</v>
       </c>
       <c r="B97" s="11" t="s">
@@ -10524,7 +10524,7 @@
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" s="10">
-        <f t="shared" si="1"/>
+        <f>A97+1</f>
         <v>97</v>
       </c>
       <c r="B98" s="11" t="s">
@@ -10596,7 +10596,7 @@
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" s="10">
-        <f t="shared" si="1"/>
+        <f>A98+1</f>
         <v>98</v>
       </c>
       <c r="B99" s="11" t="s">
@@ -10668,7 +10668,7 @@
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" s="10">
-        <f t="shared" si="1"/>
+        <f>A99+1</f>
         <v>99</v>
       </c>
       <c r="B100" s="11" t="s">
@@ -10740,7 +10740,7 @@
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" s="10">
-        <f t="shared" si="1"/>
+        <f>A100+1</f>
         <v>100</v>
       </c>
       <c r="B101" s="11" t="s">
@@ -10812,7 +10812,7 @@
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" s="10">
-        <f t="shared" si="1"/>
+        <f>A101+1</f>
         <v>101</v>
       </c>
       <c r="B102" s="11" t="s">
@@ -10884,7 +10884,7 @@
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" s="10">
-        <f t="shared" si="1"/>
+        <f>A102+1</f>
         <v>102</v>
       </c>
       <c r="B103" s="11" t="s">
@@ -10956,7 +10956,7 @@
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" s="10">
-        <f t="shared" si="1"/>
+        <f>A103+1</f>
         <v>103</v>
       </c>
       <c r="B104" s="11" t="s">
@@ -11028,7 +11028,7 @@
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" s="10">
-        <f t="shared" si="1"/>
+        <f>A104+1</f>
         <v>104</v>
       </c>
       <c r="B105" s="11" t="s">
@@ -11100,7 +11100,7 @@
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" s="10">
-        <f t="shared" si="1"/>
+        <f>A105+1</f>
         <v>105</v>
       </c>
       <c r="B106" s="11" t="s">
@@ -11172,7 +11172,7 @@
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" s="10">
-        <f t="shared" si="1"/>
+        <f>A106+1</f>
         <v>106</v>
       </c>
       <c r="B107" s="11" t="s">
@@ -11244,7 +11244,7 @@
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" s="10">
-        <f t="shared" si="1"/>
+        <f>A107+1</f>
         <v>107</v>
       </c>
       <c r="B108" s="11" t="s">
@@ -11316,7 +11316,7 @@
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" s="10">
-        <f t="shared" si="1"/>
+        <f>A108+1</f>
         <v>108</v>
       </c>
       <c r="B109" s="11" t="s">
@@ -11388,7 +11388,7 @@
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" s="10">
-        <f t="shared" si="1"/>
+        <f>A109+1</f>
         <v>109</v>
       </c>
       <c r="B110" s="11" t="s">
@@ -11460,7 +11460,7 @@
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" s="10">
-        <f t="shared" si="1"/>
+        <f>A110+1</f>
         <v>110</v>
       </c>
       <c r="B111" s="11" t="s">
@@ -11532,7 +11532,7 @@
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" s="10">
-        <f t="shared" si="1"/>
+        <f>A111+1</f>
         <v>111</v>
       </c>
       <c r="B112" s="11" t="s">
@@ -11604,7 +11604,7 @@
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" s="10">
-        <f t="shared" si="1"/>
+        <f>A112+1</f>
         <v>112</v>
       </c>
       <c r="B113" s="11" t="s">
@@ -11676,7 +11676,7 @@
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" s="10">
-        <f t="shared" si="1"/>
+        <f>A113+1</f>
         <v>113</v>
       </c>
       <c r="B114" s="11" t="s">
@@ -11748,7 +11748,7 @@
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" s="10">
-        <f t="shared" si="1"/>
+        <f>A114+1</f>
         <v>114</v>
       </c>
       <c r="B115" s="11" t="s">
@@ -11820,7 +11820,7 @@
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" s="10">
-        <f t="shared" si="1"/>
+        <f>A115+1</f>
         <v>115</v>
       </c>
       <c r="B116" s="11" t="s">
@@ -11892,7 +11892,7 @@
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" s="10">
-        <f t="shared" si="1"/>
+        <f>A116+1</f>
         <v>116</v>
       </c>
       <c r="B117" s="11" t="s">
@@ -11964,7 +11964,7 @@
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" s="10">
-        <f t="shared" si="1"/>
+        <f>A117+1</f>
         <v>117</v>
       </c>
       <c r="B118" s="11" t="s">
@@ -12036,7 +12036,7 @@
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" s="10">
-        <f t="shared" si="1"/>
+        <f>A118+1</f>
         <v>118</v>
       </c>
       <c r="B119" s="11" t="s">
@@ -12108,7 +12108,7 @@
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" s="10">
-        <f t="shared" si="1"/>
+        <f>A119+1</f>
         <v>119</v>
       </c>
       <c r="B120" s="11" t="s">
@@ -12180,7 +12180,7 @@
     </row>
     <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" s="10">
-        <f t="shared" si="1"/>
+        <f>A120+1</f>
         <v>120</v>
       </c>
       <c r="B121" s="11" t="s">
@@ -12252,7 +12252,7 @@
     </row>
     <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" s="10">
-        <f t="shared" si="1"/>
+        <f>A121+1</f>
         <v>121</v>
       </c>
       <c r="B122" s="11" t="s">
@@ -12324,7 +12324,7 @@
     </row>
     <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" s="10">
-        <f t="shared" si="1"/>
+        <f>A122+1</f>
         <v>122</v>
       </c>
       <c r="B123" s="11" t="s">
@@ -12396,7 +12396,7 @@
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" s="10">
-        <f t="shared" si="1"/>
+        <f>A123+1</f>
         <v>123</v>
       </c>
       <c r="B124" s="11" t="s">
@@ -12468,7 +12468,7 @@
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" s="10">
-        <f t="shared" si="1"/>
+        <f>A124+1</f>
         <v>124</v>
       </c>
       <c r="B125" s="11" t="s">
@@ -12540,7 +12540,7 @@
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" s="10">
-        <f t="shared" si="1"/>
+        <f>A125+1</f>
         <v>125</v>
       </c>
       <c r="B126" s="11" t="s">
@@ -12612,7 +12612,7 @@
     </row>
     <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" s="10">
-        <f t="shared" si="1"/>
+        <f>A126+1</f>
         <v>126</v>
       </c>
       <c r="B127" s="11" t="s">
@@ -12684,7 +12684,7 @@
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" s="10">
-        <f t="shared" si="1"/>
+        <f>A127+1</f>
         <v>127</v>
       </c>
       <c r="B128" s="11" t="s">
@@ -12756,7 +12756,7 @@
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129" s="10">
-        <f t="shared" si="1"/>
+        <f>A128+1</f>
         <v>128</v>
       </c>
       <c r="B129" s="11" t="s">
@@ -12828,7 +12828,7 @@
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130" s="10">
-        <f t="shared" si="1"/>
+        <f>A129+1</f>
         <v>129</v>
       </c>
       <c r="B130" s="11" t="s">
@@ -12900,7 +12900,7 @@
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131" s="10">
-        <f t="shared" ref="A131:A194" si="2">A130+1</f>
+        <f>A130+1</f>
         <v>130</v>
       </c>
       <c r="B131" s="11" t="s">
@@ -12972,7 +12972,7 @@
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132" s="10">
-        <f t="shared" si="2"/>
+        <f>A131+1</f>
         <v>131</v>
       </c>
       <c r="B132" s="11" t="s">
@@ -13044,7 +13044,7 @@
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133" s="10">
-        <f t="shared" si="2"/>
+        <f>A132+1</f>
         <v>132</v>
       </c>
       <c r="B133" s="11" t="s">
@@ -13116,7 +13116,7 @@
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134" s="10">
-        <f t="shared" si="2"/>
+        <f>A133+1</f>
         <v>133</v>
       </c>
       <c r="B134" s="11" t="s">
@@ -13188,7 +13188,7 @@
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135" s="10">
-        <f t="shared" si="2"/>
+        <f>A134+1</f>
         <v>134</v>
       </c>
       <c r="B135" s="11" t="s">
@@ -13260,7 +13260,7 @@
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136" s="10">
-        <f t="shared" si="2"/>
+        <f>A135+1</f>
         <v>135</v>
       </c>
       <c r="B136" s="11" t="s">
@@ -13332,7 +13332,7 @@
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137" s="10">
-        <f t="shared" si="2"/>
+        <f>A136+1</f>
         <v>136</v>
       </c>
       <c r="B137" s="11" t="s">
@@ -13404,7 +13404,7 @@
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138" s="10">
-        <f t="shared" si="2"/>
+        <f>A137+1</f>
         <v>137</v>
       </c>
       <c r="B138" s="11" t="s">
@@ -13476,7 +13476,7 @@
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139" s="10">
-        <f t="shared" si="2"/>
+        <f>A138+1</f>
         <v>138</v>
       </c>
       <c r="B139" s="11" t="s">
@@ -13548,7 +13548,7 @@
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A140" s="10">
-        <f t="shared" si="2"/>
+        <f>A139+1</f>
         <v>139</v>
       </c>
       <c r="B140" s="11" t="s">
@@ -13620,7 +13620,7 @@
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A141" s="10">
-        <f t="shared" si="2"/>
+        <f>A140+1</f>
         <v>140</v>
       </c>
       <c r="B141" s="11" t="s">
@@ -13692,7 +13692,7 @@
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A142" s="10">
-        <f t="shared" si="2"/>
+        <f>A141+1</f>
         <v>141</v>
       </c>
       <c r="B142" s="11" t="s">
@@ -13764,7 +13764,7 @@
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A143" s="10">
-        <f t="shared" si="2"/>
+        <f>A142+1</f>
         <v>142</v>
       </c>
       <c r="B143" s="11" t="s">
@@ -13836,7 +13836,7 @@
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144" s="10">
-        <f t="shared" si="2"/>
+        <f>A143+1</f>
         <v>143</v>
       </c>
       <c r="B144" s="11" t="s">
@@ -13908,7 +13908,7 @@
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A145" s="10">
-        <f t="shared" si="2"/>
+        <f>A144+1</f>
         <v>144</v>
       </c>
       <c r="B145" s="11" t="s">
@@ -13980,7 +13980,7 @@
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A146" s="10">
-        <f t="shared" si="2"/>
+        <f>A145+1</f>
         <v>145</v>
       </c>
       <c r="B146" s="11" t="s">
@@ -14052,7 +14052,7 @@
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A147" s="10">
-        <f t="shared" si="2"/>
+        <f>A146+1</f>
         <v>146</v>
       </c>
       <c r="B147" s="11" t="s">
@@ -14124,7 +14124,7 @@
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A148" s="10">
-        <f t="shared" si="2"/>
+        <f>A147+1</f>
         <v>147</v>
       </c>
       <c r="B148" s="11" t="s">
@@ -14196,7 +14196,7 @@
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A149" s="10">
-        <f t="shared" si="2"/>
+        <f>A148+1</f>
         <v>148</v>
       </c>
       <c r="B149" s="11" t="s">
@@ -14268,7 +14268,7 @@
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A150" s="10">
-        <f t="shared" si="2"/>
+        <f>A149+1</f>
         <v>149</v>
       </c>
       <c r="B150" s="11" t="s">
@@ -14340,7 +14340,7 @@
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A151" s="10">
-        <f t="shared" si="2"/>
+        <f>A150+1</f>
         <v>150</v>
       </c>
       <c r="B151" s="11" t="s">
@@ -14412,7 +14412,7 @@
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A152" s="10">
-        <f t="shared" si="2"/>
+        <f>A151+1</f>
         <v>151</v>
       </c>
       <c r="B152" s="11" t="s">
@@ -14484,7 +14484,7 @@
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A153" s="10">
-        <f t="shared" si="2"/>
+        <f>A152+1</f>
         <v>152</v>
       </c>
       <c r="B153" s="11" t="s">
@@ -14556,7 +14556,7 @@
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A154" s="10">
-        <f t="shared" si="2"/>
+        <f>A153+1</f>
         <v>153</v>
       </c>
       <c r="B154" s="11" t="s">
@@ -14628,7 +14628,7 @@
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A155" s="10">
-        <f t="shared" si="2"/>
+        <f>A154+1</f>
         <v>154</v>
       </c>
       <c r="B155" s="11" t="s">
@@ -14700,7 +14700,7 @@
     </row>
     <row r="156" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A156" s="10">
-        <f t="shared" si="2"/>
+        <f>A155+1</f>
         <v>155</v>
       </c>
       <c r="B156" s="11" t="s">
@@ -14772,7 +14772,7 @@
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A157" s="10">
-        <f t="shared" si="2"/>
+        <f>A156+1</f>
         <v>156</v>
       </c>
       <c r="B157" s="11" t="s">
@@ -14844,7 +14844,7 @@
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A158" s="10">
-        <f t="shared" si="2"/>
+        <f>A157+1</f>
         <v>157</v>
       </c>
       <c r="B158" s="11" t="s">
@@ -14916,7 +14916,7 @@
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A159" s="10">
-        <f t="shared" si="2"/>
+        <f>A158+1</f>
         <v>158</v>
       </c>
       <c r="B159" s="11" t="s">
@@ -14988,7 +14988,7 @@
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A160" s="10">
-        <f t="shared" si="2"/>
+        <f>A159+1</f>
         <v>159</v>
       </c>
       <c r="B160" s="11" t="s">
@@ -15060,7 +15060,7 @@
     </row>
     <row r="161" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A161" s="10">
-        <f t="shared" si="2"/>
+        <f>A160+1</f>
         <v>160</v>
       </c>
       <c r="B161" s="11" t="s">
@@ -15132,7 +15132,7 @@
     </row>
     <row r="162" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A162" s="10">
-        <f t="shared" si="2"/>
+        <f>A161+1</f>
         <v>161</v>
       </c>
       <c r="B162" s="11" t="s">
@@ -15204,7 +15204,7 @@
     </row>
     <row r="163" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A163" s="10">
-        <f t="shared" si="2"/>
+        <f>A162+1</f>
         <v>162</v>
       </c>
       <c r="B163" s="11" t="s">
@@ -15276,7 +15276,7 @@
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A164" s="10">
-        <f t="shared" si="2"/>
+        <f>A163+1</f>
         <v>163</v>
       </c>
       <c r="B164" s="11" t="s">
@@ -15348,7 +15348,7 @@
     </row>
     <row r="165" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A165" s="10">
-        <f t="shared" si="2"/>
+        <f>A164+1</f>
         <v>164</v>
       </c>
       <c r="B165" s="11" t="s">
@@ -15420,7 +15420,7 @@
     </row>
     <row r="166" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A166" s="10">
-        <f t="shared" si="2"/>
+        <f>A165+1</f>
         <v>165</v>
       </c>
       <c r="B166" s="11" t="s">
@@ -15492,7 +15492,7 @@
     </row>
     <row r="167" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A167" s="10">
-        <f t="shared" si="2"/>
+        <f>A166+1</f>
         <v>166</v>
       </c>
       <c r="B167" s="11" t="s">
@@ -15564,7 +15564,7 @@
     </row>
     <row r="168" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A168" s="10">
-        <f t="shared" si="2"/>
+        <f>A167+1</f>
         <v>167</v>
       </c>
       <c r="B168" s="11" t="s">
@@ -15636,7 +15636,7 @@
     </row>
     <row r="169" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A169" s="10">
-        <f t="shared" si="2"/>
+        <f>A168+1</f>
         <v>168</v>
       </c>
       <c r="B169" s="11" t="s">
@@ -15708,7 +15708,7 @@
     </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A170" s="10">
-        <f t="shared" si="2"/>
+        <f>A169+1</f>
         <v>169</v>
       </c>
       <c r="B170" s="11" t="s">
@@ -15780,7 +15780,7 @@
     </row>
     <row r="171" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A171" s="10">
-        <f t="shared" si="2"/>
+        <f>A170+1</f>
         <v>170</v>
       </c>
       <c r="B171" s="11" t="s">
@@ -15852,7 +15852,7 @@
     </row>
     <row r="172" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A172" s="10">
-        <f t="shared" si="2"/>
+        <f>A171+1</f>
         <v>171</v>
       </c>
       <c r="B172" s="11" t="s">
@@ -15924,7 +15924,7 @@
     </row>
     <row r="173" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A173" s="10">
-        <f t="shared" si="2"/>
+        <f>A172+1</f>
         <v>172</v>
       </c>
       <c r="B173" s="11" t="s">
@@ -15996,7 +15996,7 @@
     </row>
     <row r="174" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A174" s="10">
-        <f t="shared" si="2"/>
+        <f>A173+1</f>
         <v>173</v>
       </c>
       <c r="B174" s="11" t="s">
@@ -16068,7 +16068,7 @@
     </row>
     <row r="175" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A175" s="10">
-        <f t="shared" si="2"/>
+        <f>A174+1</f>
         <v>174</v>
       </c>
       <c r="B175" s="11" t="s">
@@ -16140,7 +16140,7 @@
     </row>
     <row r="176" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A176" s="10">
-        <f t="shared" si="2"/>
+        <f>A175+1</f>
         <v>175</v>
       </c>
       <c r="B176" s="11" t="s">
@@ -16212,7 +16212,7 @@
     </row>
     <row r="177" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A177" s="10">
-        <f t="shared" si="2"/>
+        <f>A176+1</f>
         <v>176</v>
       </c>
       <c r="B177" s="11" t="s">
@@ -16284,7 +16284,7 @@
     </row>
     <row r="178" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A178" s="10">
-        <f t="shared" si="2"/>
+        <f>A177+1</f>
         <v>177</v>
       </c>
       <c r="B178" s="11" t="s">
@@ -16356,7 +16356,7 @@
     </row>
     <row r="179" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A179" s="10">
-        <f t="shared" si="2"/>
+        <f>A178+1</f>
         <v>178</v>
       </c>
       <c r="B179" s="11" t="s">
@@ -16428,7 +16428,7 @@
     </row>
     <row r="180" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A180" s="10">
-        <f t="shared" si="2"/>
+        <f>A179+1</f>
         <v>179</v>
       </c>
       <c r="B180" s="11" t="s">
@@ -16500,7 +16500,7 @@
     </row>
     <row r="181" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A181" s="10">
-        <f t="shared" si="2"/>
+        <f>A180+1</f>
         <v>180</v>
       </c>
       <c r="B181" s="11" t="s">
@@ -16572,7 +16572,7 @@
     </row>
     <row r="182" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A182" s="10">
-        <f t="shared" si="2"/>
+        <f>A181+1</f>
         <v>181</v>
       </c>
       <c r="B182" s="11" t="s">
@@ -16644,7 +16644,7 @@
     </row>
     <row r="183" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A183" s="10">
-        <f t="shared" si="2"/>
+        <f>A182+1</f>
         <v>182</v>
       </c>
       <c r="B183" s="11" t="s">
@@ -16716,7 +16716,7 @@
     </row>
     <row r="184" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A184" s="10">
-        <f t="shared" si="2"/>
+        <f>A183+1</f>
         <v>183</v>
       </c>
       <c r="B184" s="11" t="s">
@@ -16788,7 +16788,7 @@
     </row>
     <row r="185" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A185" s="10">
-        <f t="shared" si="2"/>
+        <f>A184+1</f>
         <v>184</v>
       </c>
       <c r="B185" s="11" t="s">
@@ -16860,7 +16860,7 @@
     </row>
     <row r="186" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A186" s="10">
-        <f t="shared" si="2"/>
+        <f>A185+1</f>
         <v>185</v>
       </c>
       <c r="B186" s="11" t="s">
@@ -16932,7 +16932,7 @@
     </row>
     <row r="187" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A187" s="10">
-        <f t="shared" si="2"/>
+        <f>A186+1</f>
         <v>186</v>
       </c>
       <c r="B187" s="11" t="s">
@@ -17004,7 +17004,7 @@
     </row>
     <row r="188" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A188" s="10">
-        <f t="shared" si="2"/>
+        <f>A187+1</f>
         <v>187</v>
       </c>
       <c r="B188" s="11" t="s">
@@ -17076,7 +17076,7 @@
     </row>
     <row r="189" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A189" s="10">
-        <f t="shared" si="2"/>
+        <f>A188+1</f>
         <v>188</v>
       </c>
       <c r="B189" s="11" t="s">
@@ -17148,7 +17148,7 @@
     </row>
     <row r="190" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A190" s="10">
-        <f t="shared" si="2"/>
+        <f>A189+1</f>
         <v>189</v>
       </c>
       <c r="B190" s="11" t="s">
@@ -17220,7 +17220,7 @@
     </row>
     <row r="191" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A191" s="10">
-        <f t="shared" si="2"/>
+        <f>A190+1</f>
         <v>190</v>
       </c>
       <c r="B191" s="11" t="s">
@@ -17292,7 +17292,7 @@
     </row>
     <row r="192" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A192" s="10">
-        <f t="shared" si="2"/>
+        <f>A191+1</f>
         <v>191</v>
       </c>
       <c r="B192" s="11" t="s">
@@ -17364,7 +17364,7 @@
     </row>
     <row r="193" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A193" s="10">
-        <f t="shared" si="2"/>
+        <f>A192+1</f>
         <v>192</v>
       </c>
       <c r="B193" s="11" t="s">
@@ -17436,7 +17436,7 @@
     </row>
     <row r="194" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A194" s="10">
-        <f t="shared" si="2"/>
+        <f>A193+1</f>
         <v>193</v>
       </c>
       <c r="B194" s="11" t="s">
@@ -17508,7 +17508,7 @@
     </row>
     <row r="195" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A195" s="10">
-        <f t="shared" ref="A195:A258" si="3">A194+1</f>
+        <f>A194+1</f>
         <v>194</v>
       </c>
       <c r="B195" s="11" t="s">
@@ -17580,7 +17580,7 @@
     </row>
     <row r="196" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A196" s="10">
-        <f t="shared" si="3"/>
+        <f>A195+1</f>
         <v>195</v>
       </c>
       <c r="B196" s="11" t="s">
@@ -17652,7 +17652,7 @@
     </row>
     <row r="197" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A197" s="10">
-        <f t="shared" si="3"/>
+        <f>A196+1</f>
         <v>196</v>
       </c>
       <c r="B197" s="11" t="s">
@@ -17724,7 +17724,7 @@
     </row>
     <row r="198" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A198" s="10">
-        <f t="shared" si="3"/>
+        <f>A197+1</f>
         <v>197</v>
       </c>
       <c r="B198" s="11" t="s">
@@ -17796,7 +17796,7 @@
     </row>
     <row r="199" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A199" s="10">
-        <f t="shared" si="3"/>
+        <f>A198+1</f>
         <v>198</v>
       </c>
       <c r="B199" s="11" t="s">
@@ -17868,7 +17868,7 @@
     </row>
     <row r="200" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A200" s="10">
-        <f t="shared" si="3"/>
+        <f>A199+1</f>
         <v>199</v>
       </c>
       <c r="B200" s="11" t="s">
@@ -17940,7 +17940,7 @@
     </row>
     <row r="201" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A201" s="10">
-        <f t="shared" si="3"/>
+        <f>A200+1</f>
         <v>200</v>
       </c>
       <c r="B201" s="11" t="s">
@@ -18012,7 +18012,7 @@
     </row>
     <row r="202" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A202" s="10">
-        <f t="shared" si="3"/>
+        <f>A201+1</f>
         <v>201</v>
       </c>
       <c r="B202" s="11" t="s">
@@ -18084,7 +18084,7 @@
     </row>
     <row r="203" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A203" s="10">
-        <f t="shared" si="3"/>
+        <f>A202+1</f>
         <v>202</v>
       </c>
       <c r="B203" s="11" t="s">
@@ -18156,7 +18156,7 @@
     </row>
     <row r="204" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A204" s="10">
-        <f t="shared" si="3"/>
+        <f>A203+1</f>
         <v>203</v>
       </c>
       <c r="B204" s="11" t="s">
@@ -18228,7 +18228,7 @@
     </row>
     <row r="205" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A205" s="10">
-        <f t="shared" si="3"/>
+        <f>A204+1</f>
         <v>204</v>
       </c>
       <c r="B205" s="11" t="s">
@@ -18300,7 +18300,7 @@
     </row>
     <row r="206" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A206" s="10">
-        <f t="shared" si="3"/>
+        <f>A205+1</f>
         <v>205</v>
       </c>
       <c r="B206" s="11" t="s">
@@ -18372,7 +18372,7 @@
     </row>
     <row r="207" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A207" s="10">
-        <f t="shared" si="3"/>
+        <f>A206+1</f>
         <v>206</v>
       </c>
       <c r="B207" s="11" t="s">
@@ -18444,7 +18444,7 @@
     </row>
     <row r="208" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A208" s="10">
-        <f t="shared" si="3"/>
+        <f>A207+1</f>
         <v>207</v>
       </c>
       <c r="B208" s="11" t="s">
@@ -18516,7 +18516,7 @@
     </row>
     <row r="209" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A209" s="10">
-        <f t="shared" si="3"/>
+        <f>A208+1</f>
         <v>208</v>
       </c>
       <c r="B209" s="11" t="s">
@@ -18588,7 +18588,7 @@
     </row>
     <row r="210" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A210" s="10">
-        <f t="shared" si="3"/>
+        <f>A209+1</f>
         <v>209</v>
       </c>
       <c r="B210" s="11" t="s">
@@ -18660,7 +18660,7 @@
     </row>
     <row r="211" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A211" s="10">
-        <f t="shared" si="3"/>
+        <f>A210+1</f>
         <v>210</v>
       </c>
       <c r="B211" s="11" t="s">
@@ -18732,7 +18732,7 @@
     </row>
     <row r="212" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A212" s="10">
-        <f t="shared" si="3"/>
+        <f>A211+1</f>
         <v>211</v>
       </c>
       <c r="B212" s="11" t="s">
@@ -18804,7 +18804,7 @@
     </row>
     <row r="213" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A213" s="10">
-        <f t="shared" si="3"/>
+        <f>A212+1</f>
         <v>212</v>
       </c>
       <c r="B213" s="11" t="s">
@@ -18876,7 +18876,7 @@
     </row>
     <row r="214" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A214" s="10">
-        <f t="shared" si="3"/>
+        <f>A213+1</f>
         <v>213</v>
       </c>
       <c r="B214" s="11" t="s">
@@ -18948,7 +18948,7 @@
     </row>
     <row r="215" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A215" s="10">
-        <f t="shared" si="3"/>
+        <f>A214+1</f>
         <v>214</v>
       </c>
       <c r="B215" s="11" t="s">
@@ -19020,7 +19020,7 @@
     </row>
     <row r="216" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A216" s="10">
-        <f t="shared" si="3"/>
+        <f>A215+1</f>
         <v>215</v>
       </c>
       <c r="B216" s="11" t="s">
@@ -19092,7 +19092,7 @@
     </row>
     <row r="217" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A217" s="10">
-        <f t="shared" si="3"/>
+        <f>A216+1</f>
         <v>216</v>
       </c>
       <c r="B217" s="11" t="s">
@@ -19164,7 +19164,7 @@
     </row>
     <row r="218" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A218" s="10">
-        <f t="shared" si="3"/>
+        <f>A217+1</f>
         <v>217</v>
       </c>
       <c r="B218" s="11" t="s">
@@ -19236,7 +19236,7 @@
     </row>
     <row r="219" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A219" s="10">
-        <f t="shared" si="3"/>
+        <f>A218+1</f>
         <v>218</v>
       </c>
       <c r="B219" s="11" t="s">
@@ -19308,7 +19308,7 @@
     </row>
     <row r="220" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A220" s="10">
-        <f t="shared" si="3"/>
+        <f>A219+1</f>
         <v>219</v>
       </c>
       <c r="B220" s="11" t="s">
@@ -19380,7 +19380,7 @@
     </row>
     <row r="221" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A221" s="10">
-        <f t="shared" si="3"/>
+        <f>A220+1</f>
         <v>220</v>
       </c>
       <c r="B221" s="11" t="s">
@@ -19452,7 +19452,7 @@
     </row>
     <row r="222" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A222" s="10">
-        <f t="shared" si="3"/>
+        <f>A221+1</f>
         <v>221</v>
       </c>
       <c r="B222" s="11" t="s">
@@ -19524,7 +19524,7 @@
     </row>
     <row r="223" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A223" s="10">
-        <f t="shared" si="3"/>
+        <f>A222+1</f>
         <v>222</v>
       </c>
       <c r="B223" s="11" t="s">
@@ -19596,7 +19596,7 @@
     </row>
     <row r="224" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A224" s="10">
-        <f t="shared" si="3"/>
+        <f>A223+1</f>
         <v>223</v>
       </c>
       <c r="B224" s="11" t="s">
@@ -19668,7 +19668,7 @@
     </row>
     <row r="225" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A225" s="10">
-        <f t="shared" si="3"/>
+        <f>A224+1</f>
         <v>224</v>
       </c>
       <c r="B225" s="11" t="s">
@@ -19740,7 +19740,7 @@
     </row>
     <row r="226" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A226" s="10">
-        <f t="shared" si="3"/>
+        <f>A225+1</f>
         <v>225</v>
       </c>
       <c r="B226" s="11" t="s">
@@ -19812,7 +19812,7 @@
     </row>
     <row r="227" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A227" s="10">
-        <f t="shared" si="3"/>
+        <f>A226+1</f>
         <v>226</v>
       </c>
       <c r="B227" s="11" t="s">
@@ -19884,7 +19884,7 @@
     </row>
     <row r="228" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A228" s="10">
-        <f t="shared" si="3"/>
+        <f>A227+1</f>
         <v>227</v>
       </c>
       <c r="B228" s="11" t="s">
@@ -19956,7 +19956,7 @@
     </row>
     <row r="229" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A229" s="10">
-        <f t="shared" si="3"/>
+        <f>A228+1</f>
         <v>228</v>
       </c>
       <c r="B229" s="11" t="s">
@@ -20028,7 +20028,7 @@
     </row>
     <row r="230" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A230" s="10">
-        <f t="shared" si="3"/>
+        <f>A229+1</f>
         <v>229</v>
       </c>
       <c r="B230" s="11" t="s">
@@ -20100,7 +20100,7 @@
     </row>
     <row r="231" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A231" s="10">
-        <f t="shared" si="3"/>
+        <f>A230+1</f>
         <v>230</v>
       </c>
       <c r="B231" s="11" t="s">
@@ -20172,7 +20172,7 @@
     </row>
     <row r="232" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A232" s="10">
-        <f t="shared" si="3"/>
+        <f>A231+1</f>
         <v>231</v>
       </c>
       <c r="B232" s="11" t="s">
@@ -20244,7 +20244,7 @@
     </row>
     <row r="233" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A233" s="10">
-        <f t="shared" si="3"/>
+        <f>A232+1</f>
         <v>232</v>
       </c>
       <c r="B233" s="11" t="s">
@@ -20316,7 +20316,7 @@
     </row>
     <row r="234" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A234" s="10">
-        <f t="shared" si="3"/>
+        <f>A233+1</f>
         <v>233</v>
       </c>
       <c r="B234" s="11" t="s">
@@ -20388,7 +20388,7 @@
     </row>
     <row r="235" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A235" s="10">
-        <f t="shared" si="3"/>
+        <f>A234+1</f>
         <v>234</v>
       </c>
       <c r="B235" s="11" t="s">
@@ -20460,7 +20460,7 @@
     </row>
     <row r="236" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A236" s="10">
-        <f t="shared" si="3"/>
+        <f>A235+1</f>
         <v>235</v>
       </c>
       <c r="B236" s="11" t="s">
@@ -20532,7 +20532,7 @@
     </row>
     <row r="237" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A237" s="10">
-        <f t="shared" si="3"/>
+        <f>A236+1</f>
         <v>236</v>
       </c>
       <c r="B237" s="11" t="s">
@@ -20604,7 +20604,7 @@
     </row>
     <row r="238" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A238" s="10">
-        <f t="shared" si="3"/>
+        <f>A237+1</f>
         <v>237</v>
       </c>
       <c r="B238" s="11" t="s">
@@ -20676,7 +20676,7 @@
     </row>
     <row r="239" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A239" s="10">
-        <f t="shared" si="3"/>
+        <f>A238+1</f>
         <v>238</v>
       </c>
       <c r="B239" s="11" t="s">
@@ -20748,7 +20748,7 @@
     </row>
     <row r="240" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A240" s="10">
-        <f t="shared" si="3"/>
+        <f>A239+1</f>
         <v>239</v>
       </c>
       <c r="B240" s="11" t="s">
@@ -20820,7 +20820,7 @@
     </row>
     <row r="241" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A241" s="10">
-        <f t="shared" si="3"/>
+        <f>A240+1</f>
         <v>240</v>
       </c>
       <c r="B241" s="11" t="s">
@@ -20892,7 +20892,7 @@
     </row>
     <row r="242" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A242" s="10">
-        <f t="shared" si="3"/>
+        <f>A241+1</f>
         <v>241</v>
       </c>
       <c r="B242" s="11" t="s">
@@ -20964,7 +20964,7 @@
     </row>
     <row r="243" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A243" s="10">
-        <f t="shared" si="3"/>
+        <f>A242+1</f>
         <v>242</v>
       </c>
       <c r="B243" s="11" t="s">
@@ -21036,7 +21036,7 @@
     </row>
     <row r="244" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A244" s="10">
-        <f t="shared" si="3"/>
+        <f>A243+1</f>
         <v>243</v>
       </c>
       <c r="B244" s="11" t="s">
@@ -21108,7 +21108,7 @@
     </row>
     <row r="245" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A245" s="10">
-        <f t="shared" si="3"/>
+        <f>A244+1</f>
         <v>244</v>
       </c>
       <c r="B245" s="11" t="s">
@@ -21180,7 +21180,7 @@
     </row>
     <row r="246" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A246" s="10">
-        <f t="shared" si="3"/>
+        <f>A245+1</f>
         <v>245</v>
       </c>
       <c r="B246" s="11" t="s">
@@ -21252,7 +21252,7 @@
     </row>
     <row r="247" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A247" s="10">
-        <f t="shared" si="3"/>
+        <f>A246+1</f>
         <v>246</v>
       </c>
       <c r="B247" s="11" t="s">
@@ -21324,7 +21324,7 @@
     </row>
     <row r="248" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A248" s="10">
-        <f t="shared" si="3"/>
+        <f>A247+1</f>
         <v>247</v>
       </c>
       <c r="B248" s="11" t="s">
@@ -21396,7 +21396,7 @@
     </row>
     <row r="249" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A249" s="10">
-        <f t="shared" si="3"/>
+        <f>A248+1</f>
         <v>248</v>
       </c>
       <c r="B249" s="11" t="s">
@@ -21468,7 +21468,7 @@
     </row>
     <row r="250" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A250" s="10">
-        <f t="shared" si="3"/>
+        <f>A249+1</f>
         <v>249</v>
       </c>
       <c r="B250" s="11" t="s">
@@ -21540,7 +21540,7 @@
     </row>
     <row r="251" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A251" s="10">
-        <f t="shared" si="3"/>
+        <f>A250+1</f>
         <v>250</v>
       </c>
       <c r="B251" s="11" t="s">
@@ -21612,7 +21612,7 @@
     </row>
     <row r="252" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A252" s="10">
-        <f t="shared" si="3"/>
+        <f>A251+1</f>
         <v>251</v>
       </c>
       <c r="B252" s="11" t="s">
@@ -21684,7 +21684,7 @@
     </row>
     <row r="253" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A253" s="10">
-        <f t="shared" si="3"/>
+        <f>A252+1</f>
         <v>252</v>
       </c>
       <c r="B253" s="11" t="s">
@@ -21756,7 +21756,7 @@
     </row>
     <row r="254" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A254" s="10">
-        <f t="shared" si="3"/>
+        <f>A253+1</f>
         <v>253</v>
       </c>
       <c r="B254" s="11" t="s">
@@ -21828,7 +21828,7 @@
     </row>
     <row r="255" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A255" s="10">
-        <f t="shared" si="3"/>
+        <f>A254+1</f>
         <v>254</v>
       </c>
       <c r="B255" s="11" t="s">
@@ -21900,7 +21900,7 @@
     </row>
     <row r="256" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A256" s="10">
-        <f t="shared" si="3"/>
+        <f>A255+1</f>
         <v>255</v>
       </c>
       <c r="B256" s="11" t="s">
@@ -21972,7 +21972,7 @@
     </row>
     <row r="257" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A257" s="10">
-        <f t="shared" si="3"/>
+        <f>A256+1</f>
         <v>256</v>
       </c>
       <c r="B257" s="11" t="s">
@@ -22044,7 +22044,7 @@
     </row>
     <row r="258" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A258" s="10">
-        <f t="shared" si="3"/>
+        <f>A257+1</f>
         <v>257</v>
       </c>
       <c r="B258" s="11" t="s">
@@ -22116,7 +22116,7 @@
     </row>
     <row r="259" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A259" s="10">
-        <f t="shared" ref="A259:A283" si="4">A258+1</f>
+        <f>A258+1</f>
         <v>258</v>
       </c>
       <c r="B259" s="11" t="s">
@@ -22188,7 +22188,7 @@
     </row>
     <row r="260" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A260" s="10">
-        <f t="shared" si="4"/>
+        <f>A259+1</f>
         <v>259</v>
       </c>
       <c r="B260" s="11" t="s">
@@ -22260,7 +22260,7 @@
     </row>
     <row r="261" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A261" s="10">
-        <f t="shared" si="4"/>
+        <f>A260+1</f>
         <v>260</v>
       </c>
       <c r="B261" s="11" t="s">
@@ -22332,7 +22332,7 @@
     </row>
     <row r="262" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A262" s="10">
-        <f t="shared" si="4"/>
+        <f>A261+1</f>
         <v>261</v>
       </c>
       <c r="B262" s="11" t="s">
@@ -22404,7 +22404,7 @@
     </row>
     <row r="263" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A263" s="10">
-        <f t="shared" si="4"/>
+        <f>A262+1</f>
         <v>262</v>
       </c>
       <c r="B263" s="11" t="s">
@@ -22476,7 +22476,7 @@
     </row>
     <row r="264" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A264" s="10">
-        <f t="shared" si="4"/>
+        <f>A263+1</f>
         <v>263</v>
       </c>
       <c r="B264" s="11" t="s">
@@ -22548,7 +22548,7 @@
     </row>
     <row r="265" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A265" s="10">
-        <f t="shared" si="4"/>
+        <f>A264+1</f>
         <v>264</v>
       </c>
       <c r="B265" s="11" t="s">
@@ -22620,7 +22620,7 @@
     </row>
     <row r="266" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A266" s="10">
-        <f t="shared" si="4"/>
+        <f>A265+1</f>
         <v>265</v>
       </c>
       <c r="B266" s="11" t="s">
@@ -22692,7 +22692,7 @@
     </row>
     <row r="267" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A267" s="10">
-        <f t="shared" si="4"/>
+        <f>A266+1</f>
         <v>266</v>
       </c>
       <c r="B267" s="11" t="s">
@@ -22764,7 +22764,7 @@
     </row>
     <row r="268" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A268" s="10">
-        <f t="shared" si="4"/>
+        <f>A267+1</f>
         <v>267</v>
       </c>
       <c r="B268" s="11" t="s">
@@ -22836,7 +22836,7 @@
     </row>
     <row r="269" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A269" s="10">
-        <f t="shared" si="4"/>
+        <f>A268+1</f>
         <v>268</v>
       </c>
       <c r="B269" s="11" t="s">
@@ -22908,7 +22908,7 @@
     </row>
     <row r="270" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A270" s="10">
-        <f t="shared" si="4"/>
+        <f>A269+1</f>
         <v>269</v>
       </c>
       <c r="B270" s="11" t="s">
@@ -22980,7 +22980,7 @@
     </row>
     <row r="271" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A271" s="10">
-        <f t="shared" si="4"/>
+        <f>A270+1</f>
         <v>270</v>
       </c>
       <c r="B271" s="11" t="s">
@@ -23052,7 +23052,7 @@
     </row>
     <row r="272" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A272" s="10">
-        <f t="shared" si="4"/>
+        <f>A271+1</f>
         <v>271</v>
       </c>
       <c r="B272" s="11" t="s">
@@ -23124,7 +23124,7 @@
     </row>
     <row r="273" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A273" s="10">
-        <f t="shared" si="4"/>
+        <f>A272+1</f>
         <v>272</v>
       </c>
       <c r="B273" s="11" t="s">
@@ -23196,7 +23196,7 @@
     </row>
     <row r="274" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A274" s="10">
-        <f t="shared" si="4"/>
+        <f>A273+1</f>
         <v>273</v>
       </c>
       <c r="B274" s="11" t="s">
@@ -23268,7 +23268,7 @@
     </row>
     <row r="275" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A275" s="10">
-        <f t="shared" si="4"/>
+        <f>A274+1</f>
         <v>274</v>
       </c>
       <c r="B275" s="11" t="s">
@@ -23340,7 +23340,7 @@
     </row>
     <row r="276" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A276" s="10">
-        <f t="shared" si="4"/>
+        <f>A275+1</f>
         <v>275</v>
       </c>
       <c r="B276" s="11" t="s">
@@ -23412,7 +23412,7 @@
     </row>
     <row r="277" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A277" s="10">
-        <f t="shared" si="4"/>
+        <f>A276+1</f>
         <v>276</v>
       </c>
       <c r="B277" s="11" t="s">
@@ -23484,7 +23484,7 @@
     </row>
     <row r="278" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A278" s="10">
-        <f t="shared" si="4"/>
+        <f>A277+1</f>
         <v>277</v>
       </c>
       <c r="B278" s="11" t="s">
@@ -23556,7 +23556,7 @@
     </row>
     <row r="279" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A279" s="10">
-        <f t="shared" si="4"/>
+        <f>A278+1</f>
         <v>278</v>
       </c>
       <c r="B279" s="11" t="s">
@@ -23628,7 +23628,7 @@
     </row>
     <row r="280" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A280" s="10">
-        <f t="shared" si="4"/>
+        <f>A279+1</f>
         <v>279</v>
       </c>
       <c r="B280" s="11" t="s">
@@ -23700,7 +23700,7 @@
     </row>
     <row r="281" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A281" s="10">
-        <f t="shared" si="4"/>
+        <f>A280+1</f>
         <v>280</v>
       </c>
       <c r="B281" s="11" t="s">
@@ -23772,7 +23772,7 @@
     </row>
     <row r="282" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A282" s="10">
-        <f t="shared" si="4"/>
+        <f>A281+1</f>
         <v>281</v>
       </c>
       <c r="B282" s="11" t="s">
@@ -23844,7 +23844,7 @@
     </row>
     <row r="283" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A283" s="10">
-        <f t="shared" si="4"/>
+        <f>A282+1</f>
         <v>282</v>
       </c>
       <c r="B283" s="11" t="s">
@@ -23936,10 +23936,6 @@
       <c r="W284" s="1"/>
     </row>
     <row r="285" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A285" s="10">
-        <f>A284+1</f>
-        <v>1</v>
-      </c>
       <c r="C285" s="12"/>
       <c r="F285" s="10"/>
       <c r="G285" s="10"/>
@@ -23972,8 +23968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R282"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
